--- a/va_facility_data_2025-02-20/Clermont County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clermont%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Clermont County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clermont%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6103c844b48b4399b26afb8c90197be4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf4aef6ac418a4bbcab7654dcac9bccbb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9c36fcd7c87f4ca3adfbc79ad64b6e99"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc22b19cbb49544b19768bc55daa84b5b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3b8dcf70c0b74e508e3d02b154a1bc69"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4a51e3cae59e424da1420bac100e175f"/>
   </x:sheets>
 </x:workbook>
 </file>
